--- a/book.xlsx
+++ b/book.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hdrive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Стоимотсь аренды кв</t>
   </si>
@@ -130,13 +125,16 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Съемная кв+доп</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -264,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -441,21 +439,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -472,7 +470,7 @@
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>50000</v>
       </c>
@@ -491,7 +489,7 @@
         <v>18.119658119658119</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -523,10 +521,13 @@
         <v>22</v>
       </c>
       <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="B18">
         <v>170000</v>
       </c>
@@ -549,8 +550,8 @@
         <v>11442</v>
       </c>
       <c r="H18">
-        <f>AVERAGE(G18:G25)</f>
-        <v>11826.25</v>
+        <f>AVERAGE(G18:G25)/2</f>
+        <v>5913.125</v>
       </c>
       <c r="I18">
         <f>6500/2</f>
@@ -564,11 +565,15 @@
         <v>5000</v>
       </c>
       <c r="L18">
-        <f>F18+H18+I18+J18+K18</f>
-        <v>177726.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <f>5000+1200+1000</f>
+        <v>7200</v>
+      </c>
+      <c r="M18">
+        <f>F18+H18+I18+J18+K18+L18</f>
+        <v>179013.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="B19">
         <v>175000</v>
       </c>
@@ -576,7 +581,7 @@
         <v>12685</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="B20">
         <v>180000</v>
       </c>
@@ -584,7 +589,7 @@
         <v>12491</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="B21">
         <v>185000</v>
       </c>
@@ -592,7 +597,7 @@
         <v>11442</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="B22">
         <v>190000</v>
       </c>
@@ -600,7 +605,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="B23">
         <v>195000</v>
       </c>
@@ -608,7 +613,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24">
         <v>200000</v>
       </c>
@@ -616,7 +621,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="B25">
         <v>205000</v>
       </c>
@@ -624,22 +629,22 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="B26">
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -683,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36">
         <v>40323</v>
       </c>
@@ -693,39 +698,39 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" ref="D36:J36" si="0">$A$29*325-6%</f>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>6499.94</v>
+        <v>5524.94</v>
       </c>
       <c r="K36" s="1">
         <f>$A$29*325*0.5-6%</f>
-        <v>3249.94</v>
+        <v>2762.44</v>
       </c>
       <c r="L36" s="1">
         <f>$A$29*325*0.5-6%</f>
-        <v>3249.94</v>
+        <v>2762.44</v>
       </c>
       <c r="M36">
         <f>4100*3</f>
@@ -736,13 +741,13 @@
       </c>
       <c r="O36">
         <f>SUM(B36:N36)</f>
-        <v>118722.46000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+        <v>110922.46000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
       <c r="K44">
-        <f>O36-L18</f>
-        <v>-59003.789999999979</v>
+        <f>O36-M18</f>
+        <v>-68090.664999999979</v>
       </c>
     </row>
   </sheetData>
@@ -752,20 +757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -773,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -781,7 +786,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -789,7 +794,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -797,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -805,7 +810,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -813,7 +818,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -821,7 +826,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -829,7 +834,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -838,7 +843,7 @@
         <v>31130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15">
         <f>B10-19000</f>
         <v>12130</v>
